--- a/Datos_Pedidos_Test.xlsx
+++ b/Datos_Pedidos_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="192">
   <si>
     <t xml:space="preserve">Número Pedido</t>
   </si>
@@ -608,7 +608,7 @@
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -630,6 +630,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -683,7 +691,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -708,7 +716,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,10 +754,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1309,153 +1321,154 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>20116</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1049</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>6887550</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>20117</v>
+        <v>20116</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>7351100</v>
+        <v>6887550</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>42026</v>
+        <v>42019</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>20118</v>
+        <v>20117</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>1012</v>
+        <v>1043</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>21100</v>
+        <v>10600</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>15403000</v>
+        <v>7351100</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>42023</v>
+        <v>42026</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>12.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>24043</v>
+        <v>20118</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>8900</v>
+        <v>21100</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>6497000</v>
+        <v>15403000</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>43193</v>
+        <v>42023</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>4.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>24044</v>
+        <v>24043</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>1055</v>
+        <v>1025</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>22000</v>
+        <v>8900</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>13651000</v>
+        <v>6497000</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>43200</v>
+        <v>43193</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>12</v>
@@ -1464,93 +1477,95 @@
         <v>13</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>24045</v>
+        <v>24044</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>9125000</v>
+        <v>13651000</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>43198</v>
+        <v>43200</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>24046</v>
+        <v>24045</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>1001</v>
+        <v>1023</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>19200</v>
+        <v>12500</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>11212800</v>
+        <v>9125000</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>43195</v>
+        <v>43198</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>55</v>
+      <c r="I24" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>24047</v>
+        <v>24046</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>1049</v>
+        <v>1001</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>23000</v>
+        <v>19200</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>14271500</v>
+        <v>11212800</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>43195</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>55</v>
@@ -1559,52 +1574,52 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>24048</v>
+        <v>24047</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>14016000</v>
+        <v>14271500</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>43200</v>
+        <v>43195</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>24049</v>
+        <v>24048</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>12900</v>
+        <v>24000</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>7062750</v>
+        <v>14016000</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>43200</v>
@@ -1619,28 +1634,28 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>24050</v>
+        <v>24049</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1002</v>
+        <v>1040</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>16300</v>
+        <v>12900</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>10114150</v>
+        <v>7062750</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>59</v>
@@ -1649,22 +1664,22 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>24051</v>
+        <v>24050</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>9577600</v>
+        <v>10114150</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>43201</v>
@@ -1673,61 +1688,61 @@
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>24052</v>
+        <v>24051</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>21500</v>
+        <v>16400</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>13340750</v>
+        <v>9577600</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>43201</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>24053</v>
+        <v>24052</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>24400</v>
+        <v>21500</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>16030800</v>
+        <v>13340750</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>23</v>
@@ -1739,28 +1754,28 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>24054</v>
+        <v>24053</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1022</v>
+        <v>1047</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>9200</v>
+        <v>24400</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>6380200</v>
+        <v>16030800</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>59</v>
@@ -1769,175 +1784,175 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>24055</v>
+        <v>24054</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>13200</v>
+        <v>9200</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>9636000</v>
+        <v>6380200</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>43199</v>
+        <v>43201</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>24056</v>
+        <v>24055</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>23900</v>
+        <v>13200</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>14829950</v>
+        <v>9636000</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>43200</v>
+        <v>43199</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>24057</v>
+        <v>24056</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1001</v>
+        <v>1041</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>8200</v>
+        <v>23900</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>5686700</v>
+        <v>14829950</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>43200</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>24058</v>
+        <v>24057</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1033</v>
+        <v>1001</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>23200</v>
+        <v>8200</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>16936000</v>
+        <v>5686700</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>43200</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>24059</v>
+        <v>24058</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>15700</v>
+        <v>23200</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>11461000</v>
+        <v>16936000</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>24060</v>
+        <v>24059</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>20100</v>
+        <v>15700</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>13205700</v>
+        <v>11461000</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>23</v>
@@ -1949,28 +1964,28 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>24061</v>
+        <v>24060</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1043</v>
+        <v>1059</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>17600</v>
+        <v>20100</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>11563200</v>
+        <v>13205700</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>59</v>
@@ -1979,28 +1994,28 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>24062</v>
+        <v>24061</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1011</v>
+        <v>1043</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>23600</v>
+        <v>17600</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>16366600</v>
+        <v>11563200</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>43202</v>
+        <v>43201</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>59</v>
@@ -2009,142 +2024,142 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>24063</v>
+        <v>24062</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>13304250</v>
+        <v>16366600</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>43200</v>
+        <v>43202</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>24064</v>
+        <v>24063</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>21600</v>
+        <v>24300</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>13402800</v>
+        <v>13304250</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>43200</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>24065</v>
+        <v>24064</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>5256000</v>
+        <v>13402800</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>43200</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>24066</v>
+        <v>24065</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>15950500</v>
+        <v>5256000</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>43202</v>
+        <v>43200</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>24067</v>
+        <v>24066</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>8500</v>
+        <v>23000</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>5584500</v>
+        <v>15950500</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>43202</v>
@@ -2159,22 +2174,22 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>24068</v>
+        <v>24067</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>11900</v>
+        <v>8500</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>8252650</v>
+        <v>5584500</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>43202</v>
@@ -2189,28 +2204,28 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>24069</v>
+        <v>24068</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>10000</v>
+        <v>11900</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>6570000</v>
+        <v>8252650</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>43200</v>
+        <v>43202</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>59</v>
@@ -2219,25 +2234,25 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>24070</v>
+        <v>24069</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1028</v>
+        <v>1061</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>19800</v>
+        <v>10000</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>10840500</v>
+        <v>6570000</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>43202</v>
+        <v>43200</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>23</v>
@@ -2249,28 +2264,28 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>24071</v>
+        <v>24070</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>12088800</v>
+        <v>10840500</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>43201</v>
+        <v>43202</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>59</v>
@@ -2279,28 +2294,28 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>24072</v>
+        <v>24071</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>19000</v>
+        <v>20700</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>10402500</v>
+        <v>12088800</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>43202</v>
+        <v>43201</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>59</v>
@@ -2309,28 +2324,28 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>24073</v>
+        <v>24072</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>4927500</v>
+        <v>10402500</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>59</v>
@@ -2339,25 +2354,25 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>24074</v>
+        <v>24073</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>10700</v>
+        <v>9000</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>6248800</v>
+        <v>4927500</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>43202</v>
+        <v>43203</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>
@@ -2369,7 +2384,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>24075</v>
+        <v>24074</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1001</v>
@@ -2378,19 +2393,19 @@
         <v>30</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>21200</v>
+        <v>10700</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>15476000</v>
+        <v>6248800</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>59</v>
@@ -2399,28 +2414,28 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>24076</v>
+        <v>24075</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1037</v>
+        <v>1001</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>9200</v>
+        <v>21200</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>5372800</v>
+        <v>15476000</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>43203</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>59</v>
@@ -2429,25 +2444,25 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>24077</v>
+        <v>24076</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>12300</v>
+        <v>9200</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>8979000</v>
+        <v>5372800</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>43202</v>
+        <v>43203</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>18</v>
@@ -2459,28 +2474,28 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>24078</v>
+        <v>24077</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>9500</v>
+        <v>12300</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>5548000</v>
+        <v>8979000</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>59</v>
@@ -2489,25 +2504,25 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>24079</v>
+        <v>24078</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1009</v>
+        <v>1034</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>21400</v>
+        <v>9500</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>14059800</v>
+        <v>5548000</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>43202</v>
+        <v>43203</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>23</v>
@@ -2519,28 +2534,28 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>24080</v>
+        <v>24079</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>12100</v>
+        <v>21400</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>7508050</v>
+        <v>14059800</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>43204</v>
+        <v>43202</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>59</v>
@@ -2549,28 +2564,28 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>24081</v>
+        <v>24080</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1044</v>
+        <v>1014</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>6774400</v>
+        <v>7508050</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>59</v>
@@ -2579,28 +2594,28 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>24082</v>
+        <v>24081</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1005</v>
+        <v>1044</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>24300</v>
+        <v>11600</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>13304250</v>
+        <v>6774400</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>43204</v>
+        <v>43203</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>59</v>
@@ -2609,28 +2624,28 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>24083</v>
+        <v>24082</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>8000</v>
+        <v>24300</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>4672000</v>
+        <v>13304250</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>43205</v>
+        <v>43204</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>59</v>
@@ -2639,7 +2654,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>24084</v>
+        <v>24083</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>1025</v>
@@ -2648,19 +2663,19 @@
         <v>48</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>14700</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>9121350</v>
+        <v>4672000</v>
       </c>
       <c r="G62" s="4" t="n">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>59</v>
@@ -2669,28 +2684,28 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>24085</v>
+        <v>24084</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>8475300</v>
+        <v>9121350</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>43205</v>
+        <v>43204</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>59</v>
@@ -2699,25 +2714,25 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>24086</v>
+        <v>24085</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1008</v>
+        <v>1042</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>14100</v>
+        <v>12900</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>8749050</v>
+        <v>8475300</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>12</v>
@@ -2729,22 +2744,22 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>24087</v>
+        <v>24086</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>10000</v>
+        <v>14100</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>5475000</v>
+        <v>8749050</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>43204</v>
@@ -2759,28 +2774,28 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>24088</v>
+        <v>24087</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1030</v>
+        <v>1002</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>7475200</v>
+        <v>5475000</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>59</v>
@@ -2789,7 +2804,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>24089</v>
+        <v>24088</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>1030</v>
@@ -2798,19 +2813,19 @@
         <v>113</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>22100</v>
+        <v>12800</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>15326350</v>
+        <v>7475200</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>43207</v>
+        <v>43203</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>59</v>
@@ -2819,28 +2834,28 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>24090</v>
+        <v>24089</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1064</v>
+        <v>1030</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>8500</v>
+        <v>22100</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>5584500</v>
+        <v>15326350</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>43204</v>
+        <v>43207</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>59</v>
@@ -2849,28 +2864,28 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>24091</v>
+        <v>24090</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>1017</v>
+        <v>1064</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>20800</v>
+        <v>8500</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>13665600</v>
+        <v>5584500</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>43205</v>
+        <v>43204</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>59</v>
@@ -2879,28 +2894,28 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>24092</v>
+        <v>24091</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>11800</v>
+        <v>20800</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>8614000</v>
+        <v>13665600</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>43205</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>59</v>
@@ -2909,28 +2924,28 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>24093</v>
+        <v>24092</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>8300</v>
+        <v>11800</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>4847200</v>
+        <v>8614000</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>59</v>
@@ -2939,28 +2954,28 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>24094</v>
+        <v>24093</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>14400</v>
+        <v>8300</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>8935200</v>
+        <v>4847200</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>59</v>
@@ -2969,28 +2984,28 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>24095</v>
+        <v>24094</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>17100</v>
+        <v>14400</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>11234700</v>
+        <v>8935200</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>43207</v>
+        <v>43203</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>59</v>
@@ -2999,7 +3014,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>24096</v>
+        <v>24095</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>1039</v>
@@ -3008,19 +3023,19 @@
         <v>124</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>12400</v>
+        <v>17100</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>9052000</v>
+        <v>11234700</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>43206</v>
+        <v>43207</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>59</v>
@@ -3029,28 +3044,28 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>24097</v>
+        <v>24096</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>19900</v>
+        <v>12400</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>11621600</v>
+        <v>9052000</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>43203</v>
+        <v>43206</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>59</v>
@@ -3059,25 +3074,25 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>24098</v>
+        <v>24097</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>22000</v>
+        <v>19900</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>14454000</v>
+        <v>11621600</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>43205</v>
+        <v>43203</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>18</v>
@@ -3089,25 +3104,25 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>24099</v>
+        <v>24098</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1062</v>
+        <v>1017</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>12400</v>
+        <v>22000</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>9052000</v>
+        <v>14454000</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>43206</v>
+        <v>43205</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>18</v>
@@ -3119,28 +3134,28 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>24100</v>
+        <v>24099</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1028</v>
+        <v>1062</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>21800</v>
+        <v>12400</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>13526900</v>
+        <v>9052000</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>43206</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>59</v>
@@ -3149,28 +3164,28 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>24101</v>
+        <v>24100</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>18100</v>
+        <v>21800</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>10570400</v>
+        <v>13526900</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>43204</v>
+        <v>43206</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>59</v>
@@ -3179,28 +3194,28 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>24102</v>
+        <v>24101</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1010</v>
+        <v>1034</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>10000</v>
+        <v>18100</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>6205000</v>
+        <v>10570400</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>43206</v>
+        <v>43204</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>59</v>
@@ -3209,28 +3224,28 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>24103</v>
+        <v>24102</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>15768000</v>
+        <v>6205000</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>59</v>
@@ -3239,25 +3254,25 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>24104</v>
+        <v>24103</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>13600</v>
+        <v>21600</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>7942400</v>
+        <v>15768000</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>43206</v>
+        <v>43207</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>23</v>
@@ -3269,28 +3284,28 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>24105</v>
+        <v>24104</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>11900</v>
+        <v>13600</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>6949600</v>
+        <v>7942400</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>43208</v>
+        <v>43206</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>59</v>
@@ -3299,25 +3314,25 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>24106</v>
+        <v>24105</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>10500</v>
+        <v>11900</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>6898500</v>
+        <v>6949600</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>43207</v>
+        <v>43208</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>18</v>
@@ -3329,28 +3344,28 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>24107</v>
+        <v>24106</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>16700</v>
+        <v>10500</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>10971900</v>
+        <v>6898500</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>43205</v>
+        <v>43207</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>59</v>
@@ -3359,25 +3374,25 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>24108</v>
+        <v>24107</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>22500</v>
+        <v>16700</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>12318750</v>
+        <v>10971900</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>43207</v>
+        <v>43205</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>23</v>
@@ -3389,25 +3404,25 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>24109</v>
+        <v>24108</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>9200</v>
+        <v>22500</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>6044400</v>
+        <v>12318750</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>43210</v>
+        <v>43207</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>23</v>
@@ -3419,25 +3434,25 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>24110</v>
+        <v>24109</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1019</v>
+        <v>1048</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>18900</v>
+        <v>9200</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>11727450</v>
+        <v>6044400</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>43208</v>
+        <v>43210</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>23</v>
@@ -3449,25 +3464,25 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>24111</v>
+        <v>24110</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1048</v>
+        <v>1019</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>17100</v>
+        <v>18900</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>9986400</v>
+        <v>11727450</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>43239</v>
+        <v>43208</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>23</v>
@@ -3479,25 +3494,25 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>24112</v>
+        <v>24111</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1013</v>
+        <v>1048</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>11600</v>
+        <v>17100</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>8468000</v>
+        <v>9986400</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>43205</v>
+        <v>43239</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>23</v>
@@ -3509,28 +3524,28 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>24113</v>
+        <v>24112</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>23700</v>
+        <v>11600</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>16435950</v>
+        <v>8468000</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>43208</v>
+        <v>43205</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>59</v>
@@ -3539,28 +3554,28 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>24114</v>
+        <v>24113</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>19500</v>
+        <v>23700</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>12811500</v>
+        <v>16435950</v>
       </c>
       <c r="G92" s="4" t="n">
         <v>43208</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>59</v>
@@ -3569,25 +3584,25 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>24115</v>
+        <v>24114</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1062</v>
+        <v>1032</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>12300</v>
+        <v>19500</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>8081100</v>
+        <v>12811500</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>43207</v>
+        <v>43208</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>18</v>
@@ -3599,28 +3614,28 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>24116</v>
+        <v>24115</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1046</v>
+        <v>1062</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>8100</v>
+        <v>12300</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>5321700</v>
+        <v>8081100</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>43214</v>
+        <v>43207</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>59</v>
@@ -3629,28 +3644,28 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>24117</v>
+        <v>24116</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1025</v>
+        <v>1046</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>5986000</v>
+        <v>5321700</v>
       </c>
       <c r="G95" s="4" t="n">
-        <v>43212</v>
+        <v>43214</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>59</v>
@@ -3659,28 +3674,28 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>24118</v>
+        <v>24117</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>5139200</v>
+        <v>5986000</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>43208</v>
+        <v>43212</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>59</v>
@@ -3689,28 +3704,28 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>24119</v>
+        <v>24118</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1053</v>
+        <v>1002</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>12300</v>
+        <v>8800</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>8081100</v>
+        <v>5139200</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>43207</v>
+        <v>43208</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>59</v>
@@ -3719,25 +3734,25 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>24120</v>
+        <v>24119</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>10100</v>
+        <v>12300</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>7373000</v>
+        <v>8081100</v>
       </c>
       <c r="G98" s="4" t="n">
-        <v>43220</v>
+        <v>43207</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>12</v>
@@ -3749,28 +3764,28 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>24121</v>
+        <v>24120</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1011</v>
+        <v>1040</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>22000</v>
+        <v>10100</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>13651000</v>
+        <v>7373000</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>43239</v>
+        <v>43220</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>59</v>
@@ -3779,28 +3794,28 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>24122</v>
+        <v>24121</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>17400</v>
+        <v>22000</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>12702000</v>
+        <v>13651000</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>43212</v>
+        <v>43239</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>59</v>
@@ -3809,28 +3824,28 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>24123</v>
+        <v>24122</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>22300</v>
+        <v>17400</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>13837150</v>
+        <v>12702000</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>43214</v>
+        <v>43212</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>59</v>
@@ -3839,28 +3854,28 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>24124</v>
+        <v>24123</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>12400</v>
+        <v>22300</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>6789000</v>
+        <v>13837150</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>43212</v>
+        <v>43214</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>59</v>
@@ -3869,28 +3884,28 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>24125</v>
+        <v>24124</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>9679800</v>
+        <v>6789000</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>43207</v>
+        <v>43212</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>59</v>
@@ -3899,28 +3914,28 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>24126</v>
+        <v>24125</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>14200</v>
+        <v>15600</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>10366000</v>
+        <v>9679800</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>43210</v>
+        <v>43207</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>59</v>
@@ -3929,28 +3944,28 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>24127</v>
+        <v>24126</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>14200</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>8811100</v>
+        <v>10366000</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>43212</v>
+        <v>43210</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>59</v>
@@ -3959,28 +3974,28 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>24128</v>
+        <v>24127</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>20600</v>
+        <v>14200</v>
       </c>
       <c r="F106" s="3" t="n">
-        <v>11278500</v>
+        <v>8811100</v>
       </c>
       <c r="G106" s="4" t="n">
-        <v>43213</v>
+        <v>43212</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>59</v>
@@ -3989,28 +4004,28 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>24129</v>
+        <v>24128</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>13800650</v>
+        <v>11278500</v>
       </c>
       <c r="G107" s="4" t="n">
-        <v>43239</v>
+        <v>43213</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>59</v>
@@ -4019,25 +4034,25 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>24130</v>
+        <v>24129</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>24500</v>
+        <v>19900</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>14308000</v>
+        <v>13800650</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>43215</v>
+        <v>43239</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>12</v>
@@ -4049,28 +4064,28 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>24131</v>
+        <v>24130</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>21400</v>
+        <v>24500</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>15622000</v>
+        <v>14308000</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>43225</v>
+        <v>43215</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>59</v>
@@ -4079,28 +4094,28 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>24132</v>
+        <v>24131</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>19200</v>
+        <v>21400</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>11913600</v>
+        <v>15622000</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>43239</v>
+        <v>43225</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>59</v>
@@ -4109,28 +4124,28 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>24133</v>
+        <v>24132</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>1049</v>
+        <v>1012</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>15100</v>
+        <v>19200</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>8818400</v>
+        <v>11913600</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>43225</v>
+        <v>43239</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>59</v>
@@ -4139,25 +4154,25 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>24134</v>
+        <v>24133</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>9200</v>
+        <v>15100</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>6044400</v>
+        <v>8818400</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>43222</v>
+        <v>43225</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>18</v>
@@ -4169,28 +4184,28 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>24135</v>
+        <v>24134</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>23300</v>
+        <v>9200</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>12756750</v>
+        <v>6044400</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>43211</v>
+        <v>43222</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>59</v>
@@ -4199,28 +4214,28 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>24136</v>
+        <v>24135</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>10900</v>
+        <v>23300</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>6365600</v>
+        <v>12756750</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>59</v>
@@ -4229,28 +4244,28 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>24137</v>
+        <v>24136</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>1026</v>
+        <v>1059</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>20400</v>
+        <v>10900</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>12658200</v>
+        <v>6365600</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>43213</v>
+        <v>43210</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>59</v>
@@ -4259,28 +4274,28 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>24138</v>
+        <v>24137</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>22500</v>
+        <v>20400</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>13961250</v>
+        <v>12658200</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>43211</v>
+        <v>43213</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>59</v>
@@ -4289,25 +4304,25 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>24139</v>
+        <v>24138</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>23100</v>
+        <v>22500</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>13490400</v>
+        <v>13961250</v>
       </c>
       <c r="G117" s="4" t="n">
-        <v>43216</v>
+        <v>43211</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>12</v>
@@ -4319,25 +4334,25 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>24140</v>
+        <v>24139</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>1001</v>
+        <v>1058</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>14900</v>
+        <v>23100</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>10333150</v>
+        <v>13490400</v>
       </c>
       <c r="G118" s="4" t="n">
-        <v>43230</v>
+        <v>43216</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>12</v>
@@ -4349,28 +4364,28 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>24141</v>
+        <v>24140</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>1062</v>
+        <v>1001</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>17100</v>
+        <v>14900</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>10610550</v>
+        <v>10333150</v>
       </c>
       <c r="G119" s="4" t="n">
-        <v>43224</v>
+        <v>43230</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>59</v>
@@ -4379,25 +4394,25 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>24142</v>
+        <v>24141</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>1008</v>
+        <v>1062</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>11442750</v>
+        <v>10610550</v>
       </c>
       <c r="G120" s="4" t="n">
-        <v>43212</v>
+        <v>43224</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>18</v>
@@ -4409,25 +4424,25 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>24143</v>
+        <v>24142</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>24600</v>
+        <v>16500</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>14366400</v>
+        <v>11442750</v>
       </c>
       <c r="G121" s="4" t="n">
-        <v>43227</v>
+        <v>43212</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>18</v>
@@ -4439,28 +4454,28 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>24144</v>
+        <v>24143</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>14400</v>
+        <v>24600</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>9986400</v>
+        <v>14366400</v>
       </c>
       <c r="G122" s="4" t="n">
-        <v>43225</v>
+        <v>43227</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>59</v>
@@ -4469,25 +4484,25 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>24145</v>
+        <v>24144</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>1010</v>
+        <v>1049</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>20000</v>
+        <v>14400</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>13870000</v>
+        <v>9986400</v>
       </c>
       <c r="G123" s="4" t="n">
-        <v>43218</v>
+        <v>43225</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>12</v>
@@ -4499,28 +4514,28 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>24146</v>
+        <v>24145</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>12400</v>
+        <v>20000</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>8599400</v>
+        <v>13870000</v>
       </c>
       <c r="G124" s="4" t="n">
-        <v>43229</v>
+        <v>43218</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>59</v>
@@ -4529,25 +4544,25 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>24147</v>
+        <v>24146</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>1038</v>
+        <v>1012</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>8600</v>
+        <v>12400</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>6278000</v>
+        <v>8599400</v>
       </c>
       <c r="G125" s="4" t="n">
-        <v>43232</v>
+        <v>43229</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>18</v>
@@ -4559,28 +4574,28 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>24148</v>
+        <v>24147</v>
       </c>
       <c r="B126" s="1" t="n">
-        <v>1017</v>
+        <v>1038</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>13900</v>
+        <v>8600</v>
       </c>
       <c r="F126" s="3" t="n">
-        <v>10147000</v>
+        <v>6278000</v>
       </c>
       <c r="G126" s="4" t="n">
-        <v>43230</v>
+        <v>43232</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>59</v>
@@ -4589,28 +4604,28 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>24149</v>
+        <v>24148</v>
       </c>
       <c r="B127" s="1" t="n">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>18700</v>
+        <v>13900</v>
       </c>
       <c r="F127" s="3" t="n">
-        <v>12968450</v>
+        <v>10147000</v>
       </c>
       <c r="G127" s="4" t="n">
-        <v>43232</v>
+        <v>43230</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>59</v>
@@ -4619,22 +4634,22 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>24150</v>
+        <v>24149</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>10500</v>
+        <v>18700</v>
       </c>
       <c r="F128" s="3" t="n">
-        <v>6132000</v>
+        <v>12968450</v>
       </c>
       <c r="G128" s="4" t="n">
         <v>43232</v>
@@ -4649,28 +4664,28 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>24151</v>
+        <v>24150</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>1026</v>
+        <v>1055</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="F129" s="3" t="n">
-        <v>9344000</v>
+        <v>6132000</v>
       </c>
       <c r="G129" s="4" t="n">
-        <v>43233</v>
+        <v>43232</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>59</v>
@@ -4679,25 +4694,25 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>24152</v>
+        <v>24151</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="F130" s="3" t="n">
-        <v>11972000</v>
+        <v>9344000</v>
       </c>
       <c r="G130" s="4" t="n">
-        <v>43229</v>
+        <v>43233</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>12</v>
@@ -4709,25 +4724,25 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>24153</v>
+        <v>24152</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>24900</v>
+        <v>16400</v>
       </c>
       <c r="F131" s="3" t="n">
-        <v>17268150</v>
+        <v>11972000</v>
       </c>
       <c r="G131" s="4" t="n">
-        <v>43233</v>
+        <v>43229</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>12</v>
@@ -4739,28 +4754,28 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>24154</v>
+        <v>24153</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>1045</v>
+        <v>1001</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>17060100</v>
+        <v>17268150</v>
       </c>
       <c r="G132" s="4" t="n">
-        <v>43231</v>
+        <v>43233</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>59</v>
@@ -4769,28 +4784,28 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>24155</v>
+        <v>24154</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>11100</v>
+        <v>24600</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>7292700</v>
+        <v>17060100</v>
       </c>
       <c r="G133" s="4" t="n">
-        <v>43233</v>
+        <v>43231</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>59</v>
@@ -4799,22 +4814,22 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>24156</v>
+        <v>24155</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>17700</v>
+        <v>11100</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>9690750</v>
+        <v>7292700</v>
       </c>
       <c r="G134" s="4" t="n">
         <v>43233</v>
@@ -4829,25 +4844,25 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>24157</v>
+        <v>24156</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>1057</v>
+        <v>1035</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>9600</v>
+        <v>17700</v>
       </c>
       <c r="F135" s="3" t="n">
-        <v>6657600</v>
+        <v>9690750</v>
       </c>
       <c r="G135" s="4" t="n">
-        <v>43231</v>
+        <v>43233</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>12</v>
@@ -4859,28 +4874,28 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>24158</v>
+        <v>24157</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>1024</v>
+        <v>1057</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>19800</v>
+        <v>9600</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>14454000</v>
+        <v>6657600</v>
       </c>
       <c r="G136" s="4" t="n">
-        <v>43234</v>
+        <v>43231</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>59</v>
@@ -4889,22 +4904,22 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>24159</v>
-      </c>
-      <c r="B137" s="7" t="n">
-        <v>1059</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E137" s="8" t="n">
-        <v>8100</v>
+        <v>24158</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>19800</v>
       </c>
       <c r="F137" s="3" t="n">
-        <v>5913000</v>
+        <v>14454000</v>
       </c>
       <c r="G137" s="4" t="n">
         <v>43234</v>
@@ -4915,7 +4930,37 @@
       <c r="I137" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J137" s="9"/>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>24159</v>
+      </c>
+      <c r="B138" s="8" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E138" s="9" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>5913000</v>
+      </c>
+      <c r="G138" s="4" t="n">
+        <v>43234</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J138" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Datos_Pedidos_Test.xlsx
+++ b/Datos_Pedidos_Test.xlsx
@@ -646,12 +646,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -691,7 +703,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,8 +728,60 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -746,6 +810,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -756,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,35 +1059,35 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>20104</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="6" t="n">
         <v>1044</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="7" t="n">
         <v>16600</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="8" t="n">
         <v>9088500</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="9" t="n">
         <v>42015</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="10" t="n">
         <v>6.9</v>
       </c>
     </row>
@@ -999,67 +1123,67 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>20106</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="6" t="n">
         <v>1049</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="7" t="n">
         <v>10600</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="8" t="n">
         <v>6964200</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="9" t="n">
         <v>42022</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="10" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
         <v>20107</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="6" t="n">
         <v>1032</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="7" t="n">
         <v>21100</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="8" t="n">
         <v>13092550</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="9" t="n">
         <v>42020</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="10" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -1255,69 +1379,70 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
         <v>20114</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="6" t="n">
         <v>1014</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="7" t="n">
         <v>22100</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="8" t="n">
         <v>12099750</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="9" t="n">
         <v>42020</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="10" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
         <v>20115</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="6" t="n">
         <v>1034</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="7" t="n">
         <v>8900</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="8" t="n">
         <v>5522450</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="9" t="n">
         <v>42025</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="10" t="n">
         <v>4</v>
       </c>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -1350,7 +1475,7 @@
       <c r="J18" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -1512,65 +1637,65 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
         <v>24045</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="13" t="n">
         <v>1023</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="14" t="n">
         <v>12500</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="15" t="n">
         <v>9125000</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="16" t="n">
         <v>43198</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="n">
         <v>24046</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="13" t="n">
         <v>1001</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="14" t="n">
         <v>19200</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="15" t="n">
         <v>11212800</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="16" t="n">
         <v>43195</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1602,65 +1727,65 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="n">
         <v>24048</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="13" t="n">
         <v>1053</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="14" t="n">
         <v>24000</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="15" t="n">
         <v>14016000</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="I27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="n">
         <v>24049</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="13" t="n">
         <v>1040</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="14" t="n">
         <v>12900</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="15" t="n">
         <v>7062750</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" s="2"/>
+      <c r="I28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -1684,7 +1809,7 @@
       <c r="G29" s="4" t="n">
         <v>43201</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="19" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -1722,65 +1847,65 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="n">
         <v>24052</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="13" t="n">
         <v>1021</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="14" t="n">
         <v>21500</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="15" t="n">
         <v>13340750</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="16" t="n">
         <v>43201</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="I31" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
         <v>24053</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="13" t="n">
         <v>1047</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="14" t="n">
         <v>24400</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="15" t="n">
         <v>16030800</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="2"/>
+      <c r="I32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1897,100 +2022,100 @@
       <c r="H36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="20" t="s">
         <v>53</v>
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
         <v>24058</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="13" t="n">
         <v>1033</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="14" t="n">
         <v>23200</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="15" t="n">
         <v>16936000</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="n">
         <v>24059</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="13" t="n">
         <v>1036</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="14" t="n">
         <v>15700</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="15" t="n">
         <v>11461000</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="16" t="n">
         <v>43201</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="I38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="n">
         <v>24060</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="13" t="n">
         <v>1059</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="14" t="n">
         <v>20100</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="15" t="n">
         <v>13205700</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="2"/>
+      <c r="I39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -2022,65 +2147,65 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="n">
         <v>24062</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="13" t="n">
         <v>1011</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="14" t="n">
         <v>23600</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="15" t="n">
         <v>16366600</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="16" t="n">
         <v>43202</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="I41" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="n">
         <v>24063</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="13" t="n">
         <v>1024</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="14" t="n">
         <v>24300</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="15" t="n">
         <v>13304250</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -2112,35 +2237,35 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="n">
         <v>24065</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="13" t="n">
         <v>1002</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="14" t="n">
         <v>9000</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="15" t="n">
         <v>5256000</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -2232,65 +2357,65 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="n">
         <v>24069</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="13" t="n">
         <v>1061</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="F48" s="3" t="n">
+      <c r="F48" s="15" t="n">
         <v>6570000</v>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="G48" s="16" t="n">
         <v>43200</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="I48" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="n">
         <v>24070</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="13" t="n">
         <v>1028</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="14" t="n">
         <v>19800</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="F49" s="15" t="n">
         <v>10840500</v>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="G49" s="16" t="n">
         <v>43202</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="2"/>
+      <c r="I49" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -2322,35 +2447,35 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="n">
         <v>24072</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="13" t="n">
         <v>1016</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="14" t="n">
         <v>19000</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" s="15" t="n">
         <v>10402500</v>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="G51" s="16" t="n">
         <v>43202</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="2"/>
+      <c r="I51" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -2412,35 +2537,35 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="n">
         <v>24075</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="13" t="n">
         <v>1001</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="14" t="n">
         <v>21200</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" s="15" t="n">
         <v>15476000</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="G54" s="16" t="n">
         <v>43203</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54" s="2"/>
+      <c r="I54" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -2502,65 +2627,65 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="n">
         <v>24078</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="13" t="n">
         <v>1034</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="14" t="n">
         <v>9500</v>
       </c>
-      <c r="F57" s="3" t="n">
+      <c r="F57" s="15" t="n">
         <v>5548000</v>
       </c>
-      <c r="G57" s="4" t="n">
+      <c r="G57" s="16" t="n">
         <v>43203</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="I57" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="n">
         <v>24079</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="13" t="n">
         <v>1009</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="14" t="n">
         <v>21400</v>
       </c>
-      <c r="F58" s="3" t="n">
+      <c r="F58" s="15" t="n">
         <v>14059800</v>
       </c>
-      <c r="G58" s="4" t="n">
+      <c r="G58" s="16" t="n">
         <v>43202</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J58" s="2"/>
+      <c r="I58" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -2622,35 +2747,35 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="n">
         <v>24082</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="13" t="n">
         <v>1005</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="14" t="n">
         <v>24300</v>
       </c>
-      <c r="F61" s="3" t="n">
+      <c r="F61" s="15" t="n">
         <v>13304250</v>
       </c>
-      <c r="G61" s="4" t="n">
+      <c r="G61" s="16" t="n">
         <v>43204</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J61" s="2"/>
+      <c r="I61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -2682,35 +2807,35 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="n">
         <v>24084</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="13" t="n">
         <v>1025</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="14" t="n">
         <v>14700</v>
       </c>
-      <c r="F63" s="3" t="n">
+      <c r="F63" s="15" t="n">
         <v>9121350</v>
       </c>
-      <c r="G63" s="4" t="n">
+      <c r="G63" s="16" t="n">
         <v>43204</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="2"/>
+      <c r="I63" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -2832,35 +2957,35 @@
       </c>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="n">
         <v>24089</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="13" t="n">
         <v>1030</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="14" t="n">
         <v>22100</v>
       </c>
-      <c r="F68" s="3" t="n">
+      <c r="F68" s="15" t="n">
         <v>15326350</v>
       </c>
-      <c r="G68" s="4" t="n">
+      <c r="G68" s="16" t="n">
         <v>43207</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J68" s="2"/>
+      <c r="I68" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -2892,35 +3017,35 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="n">
         <v>24091</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="13" t="n">
         <v>1017</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="14" t="n">
         <v>20800</v>
       </c>
-      <c r="F70" s="3" t="n">
+      <c r="F70" s="15" t="n">
         <v>13665600</v>
       </c>
-      <c r="G70" s="4" t="n">
+      <c r="G70" s="16" t="n">
         <v>43205</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J70" s="2"/>
+      <c r="I70" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -2952,35 +3077,35 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="n">
         <v>24093</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="13" t="n">
         <v>1031</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="14" t="n">
         <v>8300</v>
       </c>
-      <c r="F72" s="3" t="n">
+      <c r="F72" s="15" t="n">
         <v>4847200</v>
       </c>
-      <c r="G72" s="4" t="n">
+      <c r="G72" s="16" t="n">
         <v>43204</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J72" s="2"/>
+      <c r="I72" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -3042,35 +3167,35 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="13" t="n">
         <v>24096</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="13" t="n">
         <v>1039</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="14" t="n">
         <v>12400</v>
       </c>
-      <c r="F75" s="3" t="n">
+      <c r="F75" s="15" t="n">
         <v>9052000</v>
       </c>
-      <c r="G75" s="4" t="n">
+      <c r="G75" s="16" t="n">
         <v>43206</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J75" s="2"/>
+      <c r="I75" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -3162,35 +3287,35 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13" t="n">
         <v>24100</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="13" t="n">
         <v>1028</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="14" t="n">
         <v>21800</v>
       </c>
-      <c r="F79" s="3" t="n">
+      <c r="F79" s="15" t="n">
         <v>13526900</v>
       </c>
-      <c r="G79" s="4" t="n">
+      <c r="G79" s="16" t="n">
         <v>43206</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J79" s="2"/>
+      <c r="I79" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" s="18"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -3252,65 +3377,65 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="n">
         <v>24103</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="13" t="n">
         <v>1026</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="14" t="n">
         <v>21600</v>
       </c>
-      <c r="F82" s="3" t="n">
+      <c r="F82" s="15" t="n">
         <v>15768000</v>
       </c>
-      <c r="G82" s="4" t="n">
+      <c r="G82" s="16" t="n">
         <v>43207</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="I82" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" s="18"/>
+    </row>
+    <row r="83" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="n">
         <v>24104</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="13" t="n">
         <v>1025</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="14" t="n">
         <v>13600</v>
       </c>
-      <c r="F83" s="3" t="n">
+      <c r="F83" s="15" t="n">
         <v>7942400</v>
       </c>
-      <c r="G83" s="4" t="n">
+      <c r="G83" s="16" t="n">
         <v>43206</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J83" s="2"/>
+      <c r="I83" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J83" s="18"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
@@ -3372,185 +3497,185 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="13" t="n">
         <v>24107</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="13" t="n">
         <v>1040</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="14" t="n">
         <v>16700</v>
       </c>
-      <c r="F86" s="3" t="n">
+      <c r="F86" s="15" t="n">
         <v>10971900</v>
       </c>
-      <c r="G86" s="4" t="n">
+      <c r="G86" s="16" t="n">
         <v>43205</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="I86" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="13" t="n">
         <v>24108</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="13" t="n">
         <v>1042</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="14" t="n">
         <v>22500</v>
       </c>
-      <c r="F87" s="3" t="n">
+      <c r="F87" s="15" t="n">
         <v>12318750</v>
       </c>
-      <c r="G87" s="4" t="n">
+      <c r="G87" s="16" t="n">
         <v>43207</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="I87" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="18"/>
+    </row>
+    <row r="88" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13" t="n">
         <v>24109</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="13" t="n">
         <v>1048</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="14" t="n">
         <v>9200</v>
       </c>
-      <c r="F88" s="3" t="n">
+      <c r="F88" s="15" t="n">
         <v>6044400</v>
       </c>
-      <c r="G88" s="4" t="n">
+      <c r="G88" s="16" t="n">
         <v>43210</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="I88" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="n">
         <v>24110</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="13" t="n">
         <v>1019</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="14" t="n">
         <v>18900</v>
       </c>
-      <c r="F89" s="3" t="n">
+      <c r="F89" s="15" t="n">
         <v>11727450</v>
       </c>
-      <c r="G89" s="4" t="n">
+      <c r="G89" s="16" t="n">
         <v>43208</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="I89" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="90" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="n">
         <v>24111</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="13" t="n">
         <v>1048</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="14" t="n">
         <v>17100</v>
       </c>
-      <c r="F90" s="3" t="n">
+      <c r="F90" s="15" t="n">
         <v>9986400</v>
       </c>
-      <c r="G90" s="4" t="n">
+      <c r="G90" s="16" t="n">
         <v>43239</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="I90" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J90" s="18"/>
+    </row>
+    <row r="91" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13" t="n">
         <v>24112</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="13" t="n">
         <v>1013</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="14" t="n">
         <v>11600</v>
       </c>
-      <c r="F91" s="3" t="n">
+      <c r="F91" s="15" t="n">
         <v>8468000</v>
       </c>
-      <c r="G91" s="4" t="n">
+      <c r="G91" s="16" t="n">
         <v>43205</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J91" s="2"/>
+      <c r="I91" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
@@ -3672,35 +3797,35 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="13" t="n">
         <v>24117</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="13" t="n">
         <v>1025</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="14" t="n">
         <v>8200</v>
       </c>
-      <c r="F96" s="3" t="n">
+      <c r="F96" s="15" t="n">
         <v>5986000</v>
       </c>
-      <c r="G96" s="4" t="n">
+      <c r="G96" s="16" t="n">
         <v>43212</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J96" s="2"/>
+      <c r="I96" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
@@ -3822,35 +3947,35 @@
       </c>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13" t="n">
         <v>24122</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="13" t="n">
         <v>1018</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" s="14" t="n">
         <v>17400</v>
       </c>
-      <c r="F101" s="3" t="n">
+      <c r="F101" s="15" t="n">
         <v>12702000</v>
       </c>
-      <c r="G101" s="4" t="n">
+      <c r="G101" s="16" t="n">
         <v>43212</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" s="2"/>
+      <c r="I101" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="18"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
@@ -3912,35 +4037,35 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="104" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13" t="n">
         <v>24125</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="13" t="n">
         <v>1049</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="14" t="n">
         <v>15600</v>
       </c>
-      <c r="F104" s="3" t="n">
+      <c r="F104" s="15" t="n">
         <v>9679800</v>
       </c>
-      <c r="G104" s="4" t="n">
+      <c r="G104" s="16" t="n">
         <v>43207</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J104" s="2"/>
+      <c r="I104" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J104" s="18"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
@@ -4002,35 +4127,35 @@
       </c>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="107" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13" t="n">
         <v>24128</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="13" t="n">
         <v>1047</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107" s="14" t="n">
         <v>20600</v>
       </c>
-      <c r="F107" s="3" t="n">
+      <c r="F107" s="15" t="n">
         <v>11278500</v>
       </c>
-      <c r="G107" s="4" t="n">
+      <c r="G107" s="16" t="n">
         <v>43213</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J107" s="2"/>
+      <c r="I107" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J107" s="18"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
@@ -4242,35 +4367,35 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+    <row r="115" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="13" t="n">
         <v>24136</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="13" t="n">
         <v>1059</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="14" t="n">
         <v>10900</v>
       </c>
-      <c r="F115" s="3" t="n">
+      <c r="F115" s="15" t="n">
         <v>6365600</v>
       </c>
-      <c r="G115" s="4" t="n">
+      <c r="G115" s="16" t="n">
         <v>43210</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J115" s="2"/>
+      <c r="I115" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J115" s="18"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
@@ -4602,35 +4727,35 @@
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+    <row r="127" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="13" t="n">
         <v>24148</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="13" t="n">
         <v>1017</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127" s="14" t="n">
         <v>13900</v>
       </c>
-      <c r="F127" s="3" t="n">
+      <c r="F127" s="15" t="n">
         <v>10147000</v>
       </c>
-      <c r="G127" s="4" t="n">
+      <c r="G127" s="16" t="n">
         <v>43230</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J127" s="2"/>
+      <c r="I127" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J127" s="18"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
@@ -4782,35 +4907,35 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+    <row r="133" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="13" t="n">
         <v>24154</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="13" t="n">
         <v>1045</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133" s="14" t="n">
         <v>24600</v>
       </c>
-      <c r="F133" s="3" t="n">
+      <c r="F133" s="15" t="n">
         <v>17060100</v>
       </c>
-      <c r="G133" s="4" t="n">
+      <c r="G133" s="16" t="n">
         <v>43231</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J133" s="2"/>
+      <c r="I133" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="18"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
@@ -4936,16 +5061,16 @@
       <c r="A138" s="1" t="n">
         <v>24159</v>
       </c>
-      <c r="B138" s="8" t="n">
+      <c r="B138" s="21" t="n">
         <v>1059</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E138" s="9" t="n">
+      <c r="E138" s="22" t="n">
         <v>8100</v>
       </c>
       <c r="F138" s="3" t="n">
@@ -4960,7 +5085,7 @@
       <c r="I138" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J138" s="10"/>
+      <c r="J138" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Datos_Pedidos_Test.xlsx
+++ b/Datos_Pedidos_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="192">
   <si>
     <t xml:space="preserve">Número Pedido</t>
   </si>
@@ -703,7 +703,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -752,6 +752,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -778,6 +782,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -878,10 +886,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,154 +1454,153 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>20116</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>1049</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0</v>
+        <v>6887550</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>42025</v>
+        <v>42019</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" s="12"/>
+        <v>5.3</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>20116</v>
+        <v>20117</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>6887550</v>
+        <v>7351100</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>42019</v>
+        <v>42026</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>20117</v>
+        <v>20118</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>1043</v>
+        <v>1012</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>10600</v>
+        <v>21100</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>7351100</v>
+        <v>15403000</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>42026</v>
+        <v>42023</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>6.8</v>
+      <c r="J20" s="12" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>20118</v>
+        <v>24043</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>21100</v>
+        <v>8900</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>15403000</v>
+        <v>6497000</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>42023</v>
+        <v>43193</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>12.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>24043</v>
+        <v>24044</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>1025</v>
+        <v>1055</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>8900</v>
+        <v>22000</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>6497000</v>
+        <v>13651000</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>43193</v>
+        <v>43200</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>12</v>
@@ -1602,689 +1609,687 @@
         <v>13</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>24044</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>1055</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>22000</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>13651000</v>
-      </c>
-      <c r="G23" s="4" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <v>24045</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>12500</v>
+      </c>
+      <c r="F23" s="16" t="n">
+        <v>9125000</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <v>43198</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>24046</v>
+      </c>
+      <c r="B24" s="14" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>19200</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <v>11212800</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>43195</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24047</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>14271500</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>43195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>24048</v>
+      </c>
+      <c r="B26" s="14" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>24000</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <v>14016000</v>
+      </c>
+      <c r="G26" s="17" t="n">
         <v>43200</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <v>24049</v>
+      </c>
+      <c r="B27" s="14" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>12900</v>
+      </c>
+      <c r="F27" s="16" t="n">
+        <v>7062750</v>
+      </c>
+      <c r="G27" s="17" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>24050</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>16300</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>10114150</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>43201</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="24" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
-        <v>24045</v>
-      </c>
-      <c r="B24" s="13" t="n">
-        <v>1023</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <v>12500</v>
-      </c>
-      <c r="F24" s="15" t="n">
-        <v>9125000</v>
-      </c>
-      <c r="G24" s="16" t="n">
-        <v>43198</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
-        <v>24046</v>
-      </c>
-      <c r="B25" s="13" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="14" t="n">
-        <v>19200</v>
-      </c>
-      <c r="F25" s="15" t="n">
-        <v>11212800</v>
-      </c>
-      <c r="G25" s="16" t="n">
-        <v>43195</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>24047</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>1049</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>23000</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>14271500</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>43195</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
-        <v>24048</v>
-      </c>
-      <c r="B27" s="13" t="n">
-        <v>1053</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="14" t="n">
-        <v>24000</v>
-      </c>
-      <c r="F27" s="15" t="n">
-        <v>14016000</v>
-      </c>
-      <c r="G27" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
-        <v>24049</v>
-      </c>
-      <c r="B28" s="13" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="14" t="n">
-        <v>12900</v>
-      </c>
-      <c r="F28" s="15" t="n">
-        <v>7062750</v>
-      </c>
-      <c r="G28" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" s="18"/>
+      <c r="I28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>24050</v>
+        <v>24051</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>10114150</v>
+        <v>9577600</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>43201</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>24051</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>16400</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>9577600</v>
-      </c>
-      <c r="G30" s="4" t="n">
+    <row r="30" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
+        <v>24052</v>
+      </c>
+      <c r="B30" s="14" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="15" t="n">
+        <v>21500</v>
+      </c>
+      <c r="F30" s="16" t="n">
+        <v>13340750</v>
+      </c>
+      <c r="G30" s="17" t="n">
         <v>43201</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
-        <v>24052</v>
-      </c>
-      <c r="B31" s="13" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="14" t="n">
-        <v>21500</v>
-      </c>
-      <c r="F31" s="15" t="n">
-        <v>13340750</v>
-      </c>
-      <c r="G31" s="16" t="n">
+      <c r="H30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
+        <v>24053</v>
+      </c>
+      <c r="B31" s="14" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>24400</v>
+      </c>
+      <c r="F31" s="16" t="n">
+        <v>16030800</v>
+      </c>
+      <c r="G31" s="17" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>24054</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>9200</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>6380200</v>
+      </c>
+      <c r="G32" s="4" t="n">
         <v>43201</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
-        <v>24053</v>
-      </c>
-      <c r="B32" s="13" t="n">
-        <v>1047</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="14" t="n">
-        <v>24400</v>
-      </c>
-      <c r="F32" s="15" t="n">
-        <v>16030800</v>
-      </c>
-      <c r="G32" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="18"/>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>24054</v>
+        <v>24055</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>9200</v>
+        <v>13200</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>6380200</v>
+        <v>9636000</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>43201</v>
+        <v>43199</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>24055</v>
+        <v>24056</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>13200</v>
+        <v>23900</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>9636000</v>
+        <v>14829950</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>24056</v>
+        <v>24057</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>23900</v>
+        <v>8200</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>14829950</v>
+        <v>5686700</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>43200</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="n">
+        <v>24058</v>
+      </c>
+      <c r="B36" s="14" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="15" t="n">
+        <v>23200</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <v>16936000</v>
+      </c>
+      <c r="G36" s="17" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="n">
+        <v>24059</v>
+      </c>
+      <c r="B37" s="14" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>15700</v>
+      </c>
+      <c r="F37" s="16" t="n">
+        <v>11461000</v>
+      </c>
+      <c r="G37" s="17" t="n">
+        <v>43201</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="n">
+        <v>24060</v>
+      </c>
+      <c r="B38" s="14" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="15" t="n">
+        <v>20100</v>
+      </c>
+      <c r="F38" s="16" t="n">
+        <v>13205700</v>
+      </c>
+      <c r="G38" s="17" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>24061</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>17600</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>11563200</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>43201</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
+        <v>24062</v>
+      </c>
+      <c r="B40" s="14" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="15" t="n">
+        <v>23600</v>
+      </c>
+      <c r="F40" s="16" t="n">
+        <v>16366600</v>
+      </c>
+      <c r="G40" s="17" t="n">
+        <v>43202</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
+        <v>24063</v>
+      </c>
+      <c r="B41" s="14" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="15" t="n">
+        <v>24300</v>
+      </c>
+      <c r="F41" s="16" t="n">
+        <v>13304250</v>
+      </c>
+      <c r="G41" s="17" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>24064</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>13402800</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>24057</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>8200</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>5686700</v>
-      </c>
-      <c r="G36" s="4" t="n">
+      <c r="I42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="n">
+        <v>24065</v>
+      </c>
+      <c r="B43" s="14" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="15" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F43" s="16" t="n">
+        <v>5256000</v>
+      </c>
+      <c r="G43" s="17" t="n">
         <v>43200</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
-        <v>24058</v>
-      </c>
-      <c r="B37" s="13" t="n">
-        <v>1033</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="14" t="n">
-        <v>23200</v>
-      </c>
-      <c r="F37" s="15" t="n">
-        <v>16936000</v>
-      </c>
-      <c r="G37" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="H43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I43" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
-        <v>24059</v>
-      </c>
-      <c r="B38" s="13" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="14" t="n">
-        <v>15700</v>
-      </c>
-      <c r="F38" s="15" t="n">
-        <v>11461000</v>
-      </c>
-      <c r="G38" s="16" t="n">
-        <v>43201</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
-        <v>24060</v>
-      </c>
-      <c r="B39" s="13" t="n">
-        <v>1059</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="14" t="n">
-        <v>20100</v>
-      </c>
-      <c r="F39" s="15" t="n">
-        <v>13205700</v>
-      </c>
-      <c r="G39" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>24061</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>17600</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>11563200</v>
-      </c>
-      <c r="G40" s="4" t="n">
-        <v>43201</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
-        <v>24062</v>
-      </c>
-      <c r="B41" s="13" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="14" t="n">
-        <v>23600</v>
-      </c>
-      <c r="F41" s="15" t="n">
-        <v>16366600</v>
-      </c>
-      <c r="G41" s="16" t="n">
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>24066</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>15950500</v>
+      </c>
+      <c r="G44" s="4" t="n">
         <v>43202</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
-        <v>24063</v>
-      </c>
-      <c r="B42" s="13" t="n">
-        <v>1024</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="14" t="n">
-        <v>24300</v>
-      </c>
-      <c r="F42" s="15" t="n">
-        <v>13304250</v>
-      </c>
-      <c r="G42" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>24064</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>21600</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>13402800</v>
-      </c>
-      <c r="G43" s="4" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
-        <v>24065</v>
-      </c>
-      <c r="B44" s="13" t="n">
-        <v>1002</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="14" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F44" s="15" t="n">
-        <v>5256000</v>
-      </c>
-      <c r="G44" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="18"/>
+      <c r="I44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>24066</v>
+        <v>24067</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1019</v>
+        <v>1054</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>15950500</v>
+        <v>5584500</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>43202</v>
@@ -2299,22 +2304,22 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>24067</v>
+        <v>24068</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>8500</v>
+        <v>11900</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>5584500</v>
+        <v>8252650</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>43202</v>
@@ -2327,177 +2332,177 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>24068</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>8252650</v>
-      </c>
-      <c r="G47" s="4" t="n">
+    <row r="47" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>24069</v>
+      </c>
+      <c r="B47" s="14" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F47" s="16" t="n">
+        <v>6570000</v>
+      </c>
+      <c r="G47" s="17" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
+        <v>24070</v>
+      </c>
+      <c r="B48" s="14" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="15" t="n">
+        <v>19800</v>
+      </c>
+      <c r="F48" s="16" t="n">
+        <v>10840500</v>
+      </c>
+      <c r="G48" s="17" t="n">
         <v>43202</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
-        <v>24069</v>
-      </c>
-      <c r="B48" s="13" t="n">
-        <v>1061</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="14" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F48" s="15" t="n">
-        <v>6570000</v>
-      </c>
-      <c r="G48" s="16" t="n">
-        <v>43200</v>
-      </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
-        <v>24070</v>
-      </c>
-      <c r="B49" s="13" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="14" t="n">
-        <v>19800</v>
-      </c>
-      <c r="F49" s="15" t="n">
-        <v>10840500</v>
-      </c>
-      <c r="G49" s="16" t="n">
+      <c r="I48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>24071</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>12088800</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>43201</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
+        <v>24072</v>
+      </c>
+      <c r="B50" s="14" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="15" t="n">
+        <v>19000</v>
+      </c>
+      <c r="F50" s="16" t="n">
+        <v>10402500</v>
+      </c>
+      <c r="G50" s="17" t="n">
         <v>43202</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H50" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>24071</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>20700</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>12088800</v>
-      </c>
-      <c r="G50" s="4" t="n">
-        <v>43201</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>24073</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>4927500</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>43203</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
-        <v>24072</v>
-      </c>
-      <c r="B51" s="13" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="14" t="n">
-        <v>19000</v>
-      </c>
-      <c r="F51" s="15" t="n">
-        <v>10402500</v>
-      </c>
-      <c r="G51" s="16" t="n">
-        <v>43202</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="18"/>
+      <c r="I51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>24073</v>
+        <v>24074</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>9000</v>
+        <v>10700</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>4927500</v>
+        <v>6248800</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>
@@ -2507,87 +2512,87 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>24074</v>
-      </c>
-      <c r="B53" s="1" t="n">
+    <row r="53" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
+        <v>24075</v>
+      </c>
+      <c r="B53" s="14" t="n">
         <v>1001</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>6248800</v>
-      </c>
-      <c r="G53" s="4" t="n">
-        <v>43202</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
-        <v>24075</v>
-      </c>
-      <c r="B54" s="13" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="D53" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="14" t="n">
+      <c r="E53" s="15" t="n">
         <v>21200</v>
       </c>
-      <c r="F54" s="15" t="n">
+      <c r="F53" s="16" t="n">
         <v>15476000</v>
       </c>
-      <c r="G54" s="16" t="n">
+      <c r="G53" s="17" t="n">
         <v>43203</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H53" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54" s="18"/>
+      <c r="I53" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>24076</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>9200</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>5372800</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>43203</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>24076</v>
+        <v>24077</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1037</v>
+        <v>1062</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>9200</v>
+        <v>12300</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>5372800</v>
+        <v>8979000</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>18</v>
@@ -2597,267 +2602,267 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>24077</v>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>1062</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>12300</v>
-      </c>
-      <c r="F56" s="3" t="n">
-        <v>8979000</v>
-      </c>
-      <c r="G56" s="4" t="n">
+    <row r="56" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
+        <v>24078</v>
+      </c>
+      <c r="B56" s="14" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="15" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F56" s="16" t="n">
+        <v>5548000</v>
+      </c>
+      <c r="G56" s="17" t="n">
+        <v>43203</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
+        <v>24079</v>
+      </c>
+      <c r="B57" s="14" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="15" t="n">
+        <v>21400</v>
+      </c>
+      <c r="F57" s="16" t="n">
+        <v>14059800</v>
+      </c>
+      <c r="G57" s="17" t="n">
         <v>43202</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
-        <v>24078</v>
-      </c>
-      <c r="B57" s="13" t="n">
-        <v>1034</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="14" t="n">
-        <v>9500</v>
-      </c>
-      <c r="F57" s="15" t="n">
-        <v>5548000</v>
-      </c>
-      <c r="G57" s="16" t="n">
-        <v>43203</v>
-      </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
-        <v>24079</v>
-      </c>
-      <c r="B58" s="13" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="14" t="n">
-        <v>21400</v>
-      </c>
-      <c r="F58" s="15" t="n">
-        <v>14059800</v>
-      </c>
-      <c r="G58" s="16" t="n">
-        <v>43202</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J58" s="18"/>
+      <c r="I57" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>24080</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>12100</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>7508050</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>43204</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>24080</v>
+        <v>24081</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1014</v>
+        <v>1044</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>7508050</v>
+        <v>6774400</v>
       </c>
       <c r="G59" s="4" t="n">
+        <v>43203</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="n">
+        <v>24082</v>
+      </c>
+      <c r="B60" s="14" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="15" t="n">
+        <v>24300</v>
+      </c>
+      <c r="F60" s="16" t="n">
+        <v>13304250</v>
+      </c>
+      <c r="G60" s="17" t="n">
         <v>43204</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H60" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>24083</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>4672000</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>43205</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
+        <v>24084</v>
+      </c>
+      <c r="B62" s="14" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>14700</v>
+      </c>
+      <c r="F62" s="16" t="n">
+        <v>9121350</v>
+      </c>
+      <c r="G62" s="17" t="n">
+        <v>43204</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>24085</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>8475300</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>43205</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>24081</v>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F60" s="3" t="n">
-        <v>6774400</v>
-      </c>
-      <c r="G60" s="4" t="n">
-        <v>43203</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
-        <v>24082</v>
-      </c>
-      <c r="B61" s="13" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="14" t="n">
-        <v>24300</v>
-      </c>
-      <c r="F61" s="15" t="n">
-        <v>13304250</v>
-      </c>
-      <c r="G61" s="16" t="n">
-        <v>43204</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>24083</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>4672000</v>
-      </c>
-      <c r="G62" s="4" t="n">
-        <v>43205</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
-        <v>24084</v>
-      </c>
-      <c r="B63" s="13" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="14" t="n">
-        <v>14700</v>
-      </c>
-      <c r="F63" s="15" t="n">
-        <v>9121350</v>
-      </c>
-      <c r="G63" s="16" t="n">
-        <v>43204</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="18"/>
+      <c r="I63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>24085</v>
+        <v>24086</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1042</v>
+        <v>1008</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>12900</v>
+        <v>14100</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>8475300</v>
+        <v>8749050</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>43205</v>
+        <v>43204</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>12</v>
@@ -2869,22 +2874,22 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>24086</v>
+        <v>24087</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>14100</v>
+        <v>10000</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>8749050</v>
+        <v>5475000</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>43204</v>
@@ -2899,325 +2904,325 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>24087</v>
+        <v>24088</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>10000</v>
+        <v>12800</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>5475000</v>
+        <v>7475200</v>
       </c>
       <c r="G66" s="4" t="n">
+        <v>43203</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="n">
+        <v>24089</v>
+      </c>
+      <c r="B67" s="14" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="15" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F67" s="16" t="n">
+        <v>15326350</v>
+      </c>
+      <c r="G67" s="17" t="n">
+        <v>43207</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>24090</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8500</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>5584500</v>
+      </c>
+      <c r="G68" s="4" t="n">
         <v>43204</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>24088</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>12800</v>
-      </c>
-      <c r="F67" s="3" t="n">
-        <v>7475200</v>
-      </c>
-      <c r="G67" s="4" t="n">
+      <c r="I68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14" t="n">
+        <v>24091</v>
+      </c>
+      <c r="B69" s="14" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="15" t="n">
+        <v>20800</v>
+      </c>
+      <c r="F69" s="16" t="n">
+        <v>13665600</v>
+      </c>
+      <c r="G69" s="17" t="n">
+        <v>43205</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>24092</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>8614000</v>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>43205</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="14" t="n">
+        <v>24093</v>
+      </c>
+      <c r="B71" s="14" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="15" t="n">
+        <v>8300</v>
+      </c>
+      <c r="F71" s="16" t="n">
+        <v>4847200</v>
+      </c>
+      <c r="G71" s="17" t="n">
+        <v>43204</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" s="19"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>24094</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>8935200</v>
+      </c>
+      <c r="G72" s="4" t="n">
         <v>43203</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
-        <v>24089</v>
-      </c>
-      <c r="B68" s="13" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="14" t="n">
-        <v>22100</v>
-      </c>
-      <c r="F68" s="15" t="n">
-        <v>15326350</v>
-      </c>
-      <c r="G68" s="16" t="n">
-        <v>43207</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J68" s="18"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>24090</v>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>8500</v>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>5584500</v>
-      </c>
-      <c r="G69" s="4" t="n">
-        <v>43204</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
-        <v>24091</v>
-      </c>
-      <c r="B70" s="13" t="n">
-        <v>1017</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="14" t="n">
-        <v>20800</v>
-      </c>
-      <c r="F70" s="15" t="n">
-        <v>13665600</v>
-      </c>
-      <c r="G70" s="16" t="n">
-        <v>43205</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J70" s="18"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>24092</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>11800</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>8614000</v>
-      </c>
-      <c r="G71" s="4" t="n">
-        <v>43205</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
-        <v>24093</v>
-      </c>
-      <c r="B72" s="13" t="n">
-        <v>1031</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="14" t="n">
-        <v>8300</v>
-      </c>
-      <c r="F72" s="15" t="n">
-        <v>4847200</v>
-      </c>
-      <c r="G72" s="16" t="n">
-        <v>43204</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J72" s="18"/>
+      <c r="I72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>24094</v>
+        <v>24095</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1016</v>
+        <v>1039</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>14400</v>
+        <v>17100</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>8935200</v>
+        <v>11234700</v>
       </c>
       <c r="G73" s="4" t="n">
+        <v>43207</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="n">
+        <v>24096</v>
+      </c>
+      <c r="B74" s="14" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="15" t="n">
+        <v>12400</v>
+      </c>
+      <c r="F74" s="16" t="n">
+        <v>9052000</v>
+      </c>
+      <c r="G74" s="17" t="n">
+        <v>43206</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" s="19"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>24097</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>19900</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>11621600</v>
+      </c>
+      <c r="G75" s="4" t="n">
         <v>43203</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>24095</v>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>1039</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>17100</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>11234700</v>
-      </c>
-      <c r="G74" s="4" t="n">
-        <v>43207</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="n">
-        <v>24096</v>
-      </c>
-      <c r="B75" s="13" t="n">
-        <v>1039</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" s="14" t="n">
-        <v>12400</v>
-      </c>
-      <c r="F75" s="15" t="n">
-        <v>9052000</v>
-      </c>
-      <c r="G75" s="16" t="n">
-        <v>43206</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J75" s="18"/>
+      <c r="I75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>24097</v>
+        <v>24098</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>19900</v>
+        <v>22000</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>11621600</v>
+        <v>14454000</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>43203</v>
+        <v>43205</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>18</v>
@@ -3229,25 +3234,25 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>24098</v>
+        <v>24099</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1017</v>
+        <v>1062</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>22000</v>
+        <v>12400</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>14454000</v>
+        <v>9052000</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>43205</v>
+        <v>43206</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>18</v>
@@ -3257,207 +3262,207 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>24099</v>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>1062</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>12400</v>
-      </c>
-      <c r="F78" s="3" t="n">
-        <v>9052000</v>
-      </c>
-      <c r="G78" s="4" t="n">
+    <row r="78" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14" t="n">
+        <v>24100</v>
+      </c>
+      <c r="B78" s="14" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="15" t="n">
+        <v>21800</v>
+      </c>
+      <c r="F78" s="16" t="n">
+        <v>13526900</v>
+      </c>
+      <c r="G78" s="17" t="n">
         <v>43206</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J78" s="19"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>24101</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>18100</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>10570400</v>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>43204</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="n">
-        <v>24100</v>
-      </c>
-      <c r="B79" s="13" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E79" s="14" t="n">
-        <v>21800</v>
-      </c>
-      <c r="F79" s="15" t="n">
-        <v>13526900</v>
-      </c>
-      <c r="G79" s="16" t="n">
-        <v>43206</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J79" s="18"/>
+      <c r="I79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>24101</v>
+        <v>24102</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1034</v>
+        <v>1010</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>18100</v>
+        <v>10000</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>10570400</v>
+        <v>6205000</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>43204</v>
+        <v>43206</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14" t="n">
+        <v>24103</v>
+      </c>
+      <c r="B81" s="14" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="15" t="n">
+        <v>21600</v>
+      </c>
+      <c r="F81" s="16" t="n">
+        <v>15768000</v>
+      </c>
+      <c r="G81" s="17" t="n">
+        <v>43207</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14" t="n">
+        <v>24104</v>
+      </c>
+      <c r="B82" s="14" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="15" t="n">
+        <v>13600</v>
+      </c>
+      <c r="F82" s="16" t="n">
+        <v>7942400</v>
+      </c>
+      <c r="G82" s="17" t="n">
+        <v>43206</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" s="19"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>24105</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>6949600</v>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>43208</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>24102</v>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F81" s="3" t="n">
-        <v>6205000</v>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>43206</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="n">
-        <v>24103</v>
-      </c>
-      <c r="B82" s="13" t="n">
-        <v>1026</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" s="14" t="n">
-        <v>21600</v>
-      </c>
-      <c r="F82" s="15" t="n">
-        <v>15768000</v>
-      </c>
-      <c r="G82" s="16" t="n">
-        <v>43207</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J82" s="18"/>
-    </row>
-    <row r="83" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="n">
-        <v>24104</v>
-      </c>
-      <c r="B83" s="13" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E83" s="14" t="n">
-        <v>13600</v>
-      </c>
-      <c r="F83" s="15" t="n">
-        <v>7942400</v>
-      </c>
-      <c r="G83" s="16" t="n">
-        <v>43206</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J83" s="18"/>
+      <c r="I83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>24105</v>
+        <v>24106</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>11900</v>
+        <v>10500</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>6949600</v>
+        <v>6898500</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>43208</v>
+        <v>43207</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>18</v>
@@ -3467,240 +3472,240 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>24106</v>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>10500</v>
-      </c>
-      <c r="F85" s="3" t="n">
-        <v>6898500</v>
-      </c>
-      <c r="G85" s="4" t="n">
+    <row r="85" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="14" t="n">
+        <v>24107</v>
+      </c>
+      <c r="B85" s="14" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="15" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F85" s="16" t="n">
+        <v>10971900</v>
+      </c>
+      <c r="G85" s="17" t="n">
+        <v>43205</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="19"/>
+    </row>
+    <row r="86" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="14" t="n">
+        <v>24108</v>
+      </c>
+      <c r="B86" s="14" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="15" t="n">
+        <v>22500</v>
+      </c>
+      <c r="F86" s="16" t="n">
+        <v>12318750</v>
+      </c>
+      <c r="G86" s="17" t="n">
         <v>43207</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="n">
-        <v>24107</v>
-      </c>
-      <c r="B86" s="13" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="14" t="n">
-        <v>16700</v>
-      </c>
-      <c r="F86" s="15" t="n">
-        <v>10971900</v>
-      </c>
-      <c r="G86" s="16" t="n">
+      <c r="H86" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J86" s="19"/>
+    </row>
+    <row r="87" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="14" t="n">
+        <v>24109</v>
+      </c>
+      <c r="B87" s="14" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="15" t="n">
+        <v>9200</v>
+      </c>
+      <c r="F87" s="16" t="n">
+        <v>6044400</v>
+      </c>
+      <c r="G87" s="17" t="n">
+        <v>43210</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="19"/>
+    </row>
+    <row r="88" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="14" t="n">
+        <v>24110</v>
+      </c>
+      <c r="B88" s="14" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="15" t="n">
+        <v>18900</v>
+      </c>
+      <c r="F88" s="16" t="n">
+        <v>11727450</v>
+      </c>
+      <c r="G88" s="17" t="n">
+        <v>43208</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J88" s="19"/>
+    </row>
+    <row r="89" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14" t="n">
+        <v>24111</v>
+      </c>
+      <c r="B89" s="14" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="15" t="n">
+        <v>17100</v>
+      </c>
+      <c r="F89" s="16" t="n">
+        <v>9986400</v>
+      </c>
+      <c r="G89" s="17" t="n">
+        <v>43239</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J89" s="19"/>
+    </row>
+    <row r="90" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14" t="n">
+        <v>24112</v>
+      </c>
+      <c r="B90" s="14" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="15" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F90" s="16" t="n">
+        <v>8468000</v>
+      </c>
+      <c r="G90" s="17" t="n">
         <v>43205</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="H90" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I86" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="n">
-        <v>24108</v>
-      </c>
-      <c r="B87" s="13" t="n">
-        <v>1042</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E87" s="14" t="n">
-        <v>22500</v>
-      </c>
-      <c r="F87" s="15" t="n">
-        <v>12318750</v>
-      </c>
-      <c r="G87" s="16" t="n">
-        <v>43207</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="n">
-        <v>24109</v>
-      </c>
-      <c r="B88" s="13" t="n">
-        <v>1048</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="14" t="n">
-        <v>9200</v>
-      </c>
-      <c r="F88" s="15" t="n">
-        <v>6044400</v>
-      </c>
-      <c r="G88" s="16" t="n">
-        <v>43210</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="n">
-        <v>24110</v>
-      </c>
-      <c r="B89" s="13" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="14" t="n">
-        <v>18900</v>
-      </c>
-      <c r="F89" s="15" t="n">
-        <v>11727450</v>
-      </c>
-      <c r="G89" s="16" t="n">
+      <c r="I90" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J90" s="19"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>24113</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>16435950</v>
+      </c>
+      <c r="G91" s="4" t="n">
         <v>43208</v>
       </c>
-      <c r="H89" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J89" s="18"/>
-    </row>
-    <row r="90" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="n">
-        <v>24111</v>
-      </c>
-      <c r="B90" s="13" t="n">
-        <v>1048</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E90" s="14" t="n">
-        <v>17100</v>
-      </c>
-      <c r="F90" s="15" t="n">
-        <v>9986400</v>
-      </c>
-      <c r="G90" s="16" t="n">
-        <v>43239</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="n">
-        <v>24112</v>
-      </c>
-      <c r="B91" s="13" t="n">
-        <v>1013</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E91" s="14" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F91" s="15" t="n">
-        <v>8468000</v>
-      </c>
-      <c r="G91" s="16" t="n">
-        <v>43205</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J91" s="18"/>
+      <c r="H91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>24113</v>
+        <v>24114</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>23700</v>
+        <v>19500</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>16435950</v>
+        <v>12811500</v>
       </c>
       <c r="G92" s="4" t="n">
         <v>43208</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>59</v>
@@ -3709,25 +3714,25 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>24114</v>
+        <v>24115</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1032</v>
+        <v>1062</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>19500</v>
+        <v>12300</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>12811500</v>
+        <v>8081100</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>43208</v>
+        <v>43207</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>18</v>
@@ -3739,118 +3744,118 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>24115</v>
+        <v>24116</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>12300</v>
+        <v>8100</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>8081100</v>
+        <v>5321700</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>43207</v>
+        <v>43214</v>
       </c>
       <c r="H94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="14" t="n">
+        <v>24117</v>
+      </c>
+      <c r="B95" s="14" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="15" t="n">
+        <v>8200</v>
+      </c>
+      <c r="F95" s="16" t="n">
+        <v>5986000</v>
+      </c>
+      <c r="G95" s="17" t="n">
+        <v>43212</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J95" s="19"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>24118</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>5139200</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>43208</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>24116</v>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1046</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>8100</v>
-      </c>
-      <c r="F95" s="3" t="n">
-        <v>5321700</v>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>43214</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="n">
-        <v>24117</v>
-      </c>
-      <c r="B96" s="13" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" s="14" t="n">
-        <v>8200</v>
-      </c>
-      <c r="F96" s="15" t="n">
-        <v>5986000</v>
-      </c>
-      <c r="G96" s="16" t="n">
-        <v>43212</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J96" s="18"/>
+      <c r="I96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>24118</v>
+        <v>24119</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1002</v>
+        <v>1053</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>8800</v>
+        <v>12300</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>5139200</v>
+        <v>8081100</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>43208</v>
+        <v>43207</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>59</v>
@@ -3859,25 +3864,25 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>24119</v>
+        <v>24120</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>12300</v>
+        <v>10100</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>8081100</v>
+        <v>7373000</v>
       </c>
       <c r="G98" s="4" t="n">
-        <v>43207</v>
+        <v>43220</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>12</v>
@@ -3889,295 +3894,295 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>24120</v>
+        <v>24121</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>10100</v>
+        <v>22000</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>7373000</v>
+        <v>13651000</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>43220</v>
+        <v>43239</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>24121</v>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E100" s="0" t="n">
-        <v>22000</v>
-      </c>
-      <c r="F100" s="3" t="n">
-        <v>13651000</v>
-      </c>
-      <c r="G100" s="4" t="n">
-        <v>43239</v>
-      </c>
-      <c r="H100" s="1" t="s">
+    <row r="100" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="14" t="n">
+        <v>24122</v>
+      </c>
+      <c r="B100" s="14" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" s="15" t="n">
+        <v>17400</v>
+      </c>
+      <c r="F100" s="16" t="n">
+        <v>12702000</v>
+      </c>
+      <c r="G100" s="17" t="n">
+        <v>43212</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J100" s="19"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>24123</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>22300</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>13837150</v>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>43214</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13" t="n">
-        <v>24122</v>
-      </c>
-      <c r="B101" s="13" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E101" s="14" t="n">
-        <v>17400</v>
-      </c>
-      <c r="F101" s="15" t="n">
-        <v>12702000</v>
-      </c>
-      <c r="G101" s="16" t="n">
-        <v>43212</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" s="18"/>
+      <c r="I101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>24123</v>
+        <v>24124</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>1014</v>
+        <v>1041</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>22300</v>
+        <v>12400</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>13837150</v>
+        <v>6789000</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>43214</v>
+        <v>43212</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>24124</v>
-      </c>
-      <c r="B103" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>12400</v>
-      </c>
-      <c r="F103" s="3" t="n">
-        <v>6789000</v>
-      </c>
-      <c r="G103" s="4" t="n">
-        <v>43212</v>
-      </c>
-      <c r="H103" s="1" t="s">
+    <row r="103" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="14" t="n">
+        <v>24125</v>
+      </c>
+      <c r="B103" s="14" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="15" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F103" s="16" t="n">
+        <v>9679800</v>
+      </c>
+      <c r="G103" s="17" t="n">
+        <v>43207</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J103" s="19"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>24126</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>14200</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>10366000</v>
+      </c>
+      <c r="G104" s="4" t="n">
+        <v>43210</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="n">
-        <v>24125</v>
-      </c>
-      <c r="B104" s="13" t="n">
-        <v>1049</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="14" t="n">
-        <v>15600</v>
-      </c>
-      <c r="F104" s="15" t="n">
-        <v>9679800</v>
-      </c>
-      <c r="G104" s="16" t="n">
-        <v>43207</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J104" s="18"/>
+      <c r="I104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>24126</v>
+        <v>24127</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>1036</v>
+        <v>1057</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>14200</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>10366000</v>
+        <v>8811100</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>43210</v>
+        <v>43212</v>
       </c>
       <c r="H105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="14" t="n">
+        <v>24128</v>
+      </c>
+      <c r="B106" s="14" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="15" t="n">
+        <v>20600</v>
+      </c>
+      <c r="F106" s="16" t="n">
+        <v>11278500</v>
+      </c>
+      <c r="G106" s="17" t="n">
+        <v>43213</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>24129</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>19900</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>13800650</v>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>43239</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>24127</v>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1057</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E106" s="0" t="n">
-        <v>14200</v>
-      </c>
-      <c r="F106" s="3" t="n">
-        <v>8811100</v>
-      </c>
-      <c r="G106" s="4" t="n">
-        <v>43212</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="n">
-        <v>24128</v>
-      </c>
-      <c r="B107" s="13" t="n">
-        <v>1047</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="14" t="n">
-        <v>20600</v>
-      </c>
-      <c r="F107" s="15" t="n">
-        <v>11278500</v>
-      </c>
-      <c r="G107" s="16" t="n">
-        <v>43213</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J107" s="18"/>
+      <c r="I107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>24129</v>
+        <v>24130</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>19900</v>
+        <v>24500</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>13800650</v>
+        <v>14308000</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>43239</v>
+        <v>43215</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>12</v>
@@ -4189,28 +4194,28 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>24130</v>
+        <v>24131</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>1041</v>
+        <v>1017</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>24500</v>
+        <v>21400</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>14308000</v>
+        <v>15622000</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>43215</v>
+        <v>43225</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>59</v>
@@ -4219,28 +4224,28 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>24131</v>
+        <v>24132</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>21400</v>
+        <v>19200</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>15622000</v>
+        <v>11913600</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>43225</v>
+        <v>43239</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>59</v>
@@ -4249,28 +4254,28 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>24132</v>
+        <v>24133</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>1012</v>
+        <v>1049</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>19200</v>
+        <v>15100</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>11913600</v>
+        <v>8818400</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>43239</v>
+        <v>43225</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>59</v>
@@ -4279,25 +4284,25 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>24133</v>
+        <v>24134</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>15100</v>
+        <v>9200</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>8818400</v>
+        <v>6044400</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>43225</v>
+        <v>43222</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>18</v>
@@ -4309,118 +4314,118 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>24134</v>
+        <v>24135</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>1045</v>
+        <v>1060</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>9200</v>
+        <v>23300</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>6044400</v>
+        <v>12756750</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>43222</v>
+        <v>43211</v>
       </c>
       <c r="H113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="14" t="n">
+        <v>24136</v>
+      </c>
+      <c r="B114" s="14" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E114" s="15" t="n">
+        <v>10900</v>
+      </c>
+      <c r="F114" s="16" t="n">
+        <v>6365600</v>
+      </c>
+      <c r="G114" s="17" t="n">
+        <v>43210</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J114" s="19"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>24137</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>12658200</v>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>43213</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J113" s="2"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>24135</v>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>23300</v>
-      </c>
-      <c r="F114" s="3" t="n">
-        <v>12756750</v>
-      </c>
-      <c r="G114" s="4" t="n">
-        <v>43211</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13" t="n">
-        <v>24136</v>
-      </c>
-      <c r="B115" s="13" t="n">
-        <v>1059</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="14" t="n">
-        <v>10900</v>
-      </c>
-      <c r="F115" s="15" t="n">
-        <v>6365600</v>
-      </c>
-      <c r="G115" s="16" t="n">
-        <v>43210</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J115" s="18"/>
+      <c r="I115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>24137</v>
+        <v>24138</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>1026</v>
+        <v>1059</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>20400</v>
+        <v>22500</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>12658200</v>
+        <v>13961250</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>43213</v>
+        <v>43211</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>59</v>
@@ -4429,25 +4434,25 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>24138</v>
+        <v>24139</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>13961250</v>
+        <v>13490400</v>
       </c>
       <c r="G117" s="4" t="n">
-        <v>43211</v>
+        <v>43216</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>12</v>
@@ -4459,25 +4464,25 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>24139</v>
+        <v>24140</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>1058</v>
+        <v>1001</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>23100</v>
+        <v>14900</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>13490400</v>
+        <v>10333150</v>
       </c>
       <c r="G118" s="4" t="n">
-        <v>43216</v>
+        <v>43230</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>12</v>
@@ -4489,28 +4494,28 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>24140</v>
+        <v>24141</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>1001</v>
+        <v>1062</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>14900</v>
+        <v>17100</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>10333150</v>
+        <v>10610550</v>
       </c>
       <c r="G119" s="4" t="n">
-        <v>43230</v>
+        <v>43224</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>59</v>
@@ -4519,25 +4524,25 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>24141</v>
+        <v>24142</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>1062</v>
+        <v>1008</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>10610550</v>
+        <v>11442750</v>
       </c>
       <c r="G120" s="4" t="n">
-        <v>43224</v>
+        <v>43212</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>18</v>
@@ -4549,25 +4554,25 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>24142</v>
+        <v>24143</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>1008</v>
+        <v>1037</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>16500</v>
+        <v>24600</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>11442750</v>
+        <v>14366400</v>
       </c>
       <c r="G121" s="4" t="n">
-        <v>43212</v>
+        <v>43227</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>18</v>
@@ -4579,28 +4584,28 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>24143</v>
+        <v>24144</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>24600</v>
+        <v>14400</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>14366400</v>
+        <v>9986400</v>
       </c>
       <c r="G122" s="4" t="n">
-        <v>43227</v>
+        <v>43225</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>59</v>
@@ -4609,25 +4614,25 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>24144</v>
+        <v>24145</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>1049</v>
+        <v>1010</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>14400</v>
+        <v>20000</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>9986400</v>
+        <v>13870000</v>
       </c>
       <c r="G123" s="4" t="n">
-        <v>43225</v>
+        <v>43218</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>12</v>
@@ -4639,28 +4644,28 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>24145</v>
+        <v>24146</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>20000</v>
+        <v>12400</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>13870000</v>
+        <v>8599400</v>
       </c>
       <c r="G124" s="4" t="n">
-        <v>43218</v>
+        <v>43229</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>59</v>
@@ -4669,25 +4674,25 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>24146</v>
+        <v>24147</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>1012</v>
+        <v>1038</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>12400</v>
+        <v>8600</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>8599400</v>
+        <v>6278000</v>
       </c>
       <c r="G125" s="4" t="n">
-        <v>43229</v>
+        <v>43232</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>18</v>
@@ -4697,84 +4702,84 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>24147</v>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1038</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>8600</v>
-      </c>
-      <c r="F126" s="3" t="n">
-        <v>6278000</v>
-      </c>
-      <c r="G126" s="4" t="n">
+    <row r="126" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="14" t="n">
+        <v>24148</v>
+      </c>
+      <c r="B126" s="14" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E126" s="15" t="n">
+        <v>13900</v>
+      </c>
+      <c r="F126" s="16" t="n">
+        <v>10147000</v>
+      </c>
+      <c r="G126" s="17" t="n">
+        <v>43230</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J126" s="19"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>24149</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>18700</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>12968450</v>
+      </c>
+      <c r="G127" s="4" t="n">
         <v>43232</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J126" s="2"/>
-    </row>
-    <row r="127" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13" t="n">
-        <v>24148</v>
-      </c>
-      <c r="B127" s="13" t="n">
-        <v>1017</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E127" s="14" t="n">
-        <v>13900</v>
-      </c>
-      <c r="F127" s="15" t="n">
-        <v>10147000</v>
-      </c>
-      <c r="G127" s="16" t="n">
-        <v>43230</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J127" s="18"/>
+      <c r="I127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>24149</v>
+        <v>24150</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>18700</v>
+        <v>10500</v>
       </c>
       <c r="F128" s="3" t="n">
-        <v>12968450</v>
+        <v>6132000</v>
       </c>
       <c r="G128" s="4" t="n">
         <v>43232</v>
@@ -4789,28 +4794,28 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>24150</v>
+        <v>24151</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>1055</v>
+        <v>1026</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="F129" s="3" t="n">
-        <v>6132000</v>
+        <v>9344000</v>
       </c>
       <c r="G129" s="4" t="n">
-        <v>43232</v>
+        <v>43233</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>59</v>
@@ -4819,25 +4824,25 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>24151</v>
+        <v>24152</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="F130" s="3" t="n">
-        <v>9344000</v>
+        <v>11972000</v>
       </c>
       <c r="G130" s="4" t="n">
-        <v>43233</v>
+        <v>43229</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>12</v>
@@ -4849,25 +4854,25 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>24152</v>
+        <v>24153</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>1035</v>
+        <v>1001</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>16400</v>
+        <v>24900</v>
       </c>
       <c r="F131" s="3" t="n">
-        <v>11972000</v>
+        <v>17268150</v>
       </c>
       <c r="G131" s="4" t="n">
-        <v>43229</v>
+        <v>43233</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>12</v>
@@ -4877,84 +4882,84 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>24153</v>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="E132" s="0" t="n">
-        <v>24900</v>
-      </c>
-      <c r="F132" s="3" t="n">
-        <v>17268150</v>
-      </c>
-      <c r="G132" s="4" t="n">
+    <row r="132" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="14" t="n">
+        <v>24154</v>
+      </c>
+      <c r="B132" s="14" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E132" s="15" t="n">
+        <v>24600</v>
+      </c>
+      <c r="F132" s="16" t="n">
+        <v>17060100</v>
+      </c>
+      <c r="G132" s="17" t="n">
+        <v>43231</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J132" s="19"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>24155</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>7292700</v>
+      </c>
+      <c r="G133" s="4" t="n">
         <v>43233</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13" t="n">
-        <v>24154</v>
-      </c>
-      <c r="B133" s="13" t="n">
-        <v>1045</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E133" s="14" t="n">
-        <v>24600</v>
-      </c>
-      <c r="F133" s="15" t="n">
-        <v>17060100</v>
-      </c>
-      <c r="G133" s="16" t="n">
-        <v>43231</v>
-      </c>
-      <c r="H133" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J133" s="18"/>
+      <c r="I133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>24155</v>
+        <v>24156</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>11100</v>
+        <v>17700</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>7292700</v>
+        <v>9690750</v>
       </c>
       <c r="G134" s="4" t="n">
         <v>43233</v>
@@ -4969,25 +4974,25 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>24156</v>
+        <v>24157</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>17700</v>
+        <v>9600</v>
       </c>
       <c r="F135" s="3" t="n">
-        <v>9690750</v>
+        <v>6657600</v>
       </c>
       <c r="G135" s="4" t="n">
-        <v>43233</v>
+        <v>43231</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>12</v>
@@ -4999,28 +5004,28 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>24157</v>
+        <v>24158</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>1057</v>
+        <v>1024</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>9600</v>
+        <v>19800</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>6657600</v>
+        <v>14454000</v>
       </c>
       <c r="G136" s="4" t="n">
-        <v>43231</v>
+        <v>43234</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>59</v>
@@ -5029,22 +5034,22 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>24158</v>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E137" s="0" t="n">
-        <v>19800</v>
+        <v>24159</v>
+      </c>
+      <c r="B137" s="23" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" s="24" t="n">
+        <v>8100</v>
       </c>
       <c r="F137" s="3" t="n">
-        <v>14454000</v>
+        <v>5913000</v>
       </c>
       <c r="G137" s="4" t="n">
         <v>43234</v>
@@ -5055,37 +5060,7 @@
       <c r="I137" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J137" s="2"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>24159</v>
-      </c>
-      <c r="B138" s="21" t="n">
-        <v>1059</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E138" s="22" t="n">
-        <v>8100</v>
-      </c>
-      <c r="F138" s="3" t="n">
-        <v>5913000</v>
-      </c>
-      <c r="G138" s="4" t="n">
-        <v>43234</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J138" s="23"/>
+      <c r="J137" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
